--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Box\FMEnergy\Utilities\Utility Recharges\02 Feb 2018 Recharges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucmuser\Documents\GitHub\refillRecharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{36D49ED7-2284-43EF-A72A-0E58B638E1F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10110" windowHeight="7935" tabRatio="685" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10110" windowHeight="7935" tabRatio="685" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Load Shape" sheetId="1" state="hidden" r:id="rId1"/>
@@ -122,27 +121,27 @@
     <definedName name="Z_DFC6CB94_9BD9_42C9_9155_85AE48A8AF87_.wvu.PrintTitles" localSheetId="9" hidden="1">'Water Old'!$1:$3</definedName>
     <definedName name="Z_DFC6CB94_9BD9_42C9_9155_85AE48A8AF87_.wvu.Rows" localSheetId="3" hidden="1">Gas!$38:$41</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="ucmuser - Personal View" guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-166" windowWidth="1616" windowHeight="916" tabRatio="685" activeSheetId="11"/>
+    <customWorkbookView name="UCM User - Personal View" guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="827" tabRatio="685" activeSheetId="5"/>
+    <customWorkbookView name="mcuser - Personal View" guid="{BAA39939-E753-438A-B867-0C9F92A74103}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="292" windowWidth="1616" windowHeight="916" tabRatio="685" activeSheetId="3"/>
+    <customWorkbookView name="James Ly - Personal View" guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1050" tabRatio="685" activeSheetId="11"/>
+    <customWorkbookView name="FMEnergy - Personal View" guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="685" activeSheetId="2"/>
+    <customWorkbookView name="Gabriel Picazo - Personal View" guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="685" activeSheetId="11"/>
     <customWorkbookView name="James - Personal View" guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="685" activeSheetId="2"/>
-    <customWorkbookView name="ucmuser - Personal View" guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="685" activeSheetId="2"/>
-    <customWorkbookView name="Gabriel Picazo - Personal View" guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="685" activeSheetId="11"/>
-    <customWorkbookView name="FMEnergy - Personal View" guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="685" activeSheetId="2"/>
-    <customWorkbookView name="James Ly - Personal View" guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1050" tabRatio="685" activeSheetId="11"/>
-    <customWorkbookView name="mcuser - Personal View" guid="{BAA39939-E753-438A-B867-0C9F92A74103}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="292" windowWidth="1616" windowHeight="916" tabRatio="685" activeSheetId="3"/>
-    <customWorkbookView name="UCM User - Personal View" guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="827" tabRatio="685" activeSheetId="5"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>John Elliott</author>
     <author>Student1</author>
   </authors>
   <commentList>
-    <comment ref="H51" authorId="0" guid="{106E62A1-7360-4D87-B174-62BC802426F6}" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H51" authorId="0" guid="{106E62A1-7360-4D87-B174-62BC802426F6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="1" guid="{BF3773A5-97DE-422F-8164-E127FD1E5B8D}" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D74" authorId="1" guid="{BF3773A5-97DE-422F-8164-E127FD1E5B8D}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,12 +197,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ucmuser</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0" guid="{FDC7BFB3-3F97-439F-9878-A14C8C84D5BE}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="I15" authorId="0" guid="{FDC7BFB3-3F97-439F-9878-A14C8C84D5BE}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" guid="{C093C652-E3D5-4C19-A7FF-09589BB96D01}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="J15" authorId="0" guid="{C093C652-E3D5-4C19-A7FF-09589BB96D01}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" guid="{E74BFDD5-7716-4D30-9BA6-612E88D2A324}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I18" authorId="0" guid="{E74BFDD5-7716-4D30-9BA6-612E88D2A324}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" guid="{A3E2F19D-183B-4A01-93E4-B404DFB2E96E}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="I25" authorId="0" guid="{A3E2F19D-183B-4A01-93E4-B404DFB2E96E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" guid="{D3B84594-E639-49D0-AEC4-A391E9AD5F80}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="I28" authorId="0" guid="{D3B84594-E639-49D0-AEC4-A391E9AD5F80}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" guid="{B349DF92-B854-4BDC-A8A9-A0A67D8F5722}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I31" authorId="0" guid="{B349DF92-B854-4BDC-A8A9-A0A67D8F5722}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0" guid="{8BF0ABED-186B-421F-8EDF-5F21AE12D898}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="I34" authorId="0" guid="{8BF0ABED-186B-421F-8EDF-5F21AE12D898}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" guid="{08439844-8239-4124-B2EC-AFEEFEBD2FEF}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="I37" authorId="0" guid="{08439844-8239-4124-B2EC-AFEEFEBD2FEF}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" guid="{16852011-988F-4A30-A8B0-6E61654E3CFB}" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="I40" authorId="0" guid="{16852011-988F-4A30-A8B0-6E61654E3CFB}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" guid="{40FA4655-E26E-4000-99B1-CD59BFF4A3CA}" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="I43" authorId="0" guid="{40FA4655-E26E-4000-99B1-CD59BFF4A3CA}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" guid="{6215762F-CEBE-4C4B-BC91-76E5E3EE891E}" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="I46" authorId="0" guid="{6215762F-CEBE-4C4B-BC91-76E5E3EE891E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +480,7 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ucmuser</author>
     <author>mcuser</author>
@@ -491,7 +490,7 @@
     <author>Student1</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" guid="{AACB2A5D-99F8-4EA2-ADB8-C6C312B8C40B}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B5" authorId="0" guid="{AACB2A5D-99F8-4EA2-ADB8-C6C312B8C40B}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="1" guid="{E0DE9687-EF47-4210-9570-D67D11DA6A27}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E12" authorId="1" guid="{E0DE9687-EF47-4210-9570-D67D11DA6A27}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" guid="{FAB1098C-B8C9-4DF2-9018-1BB7594E824C}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F12" authorId="0" guid="{FAB1098C-B8C9-4DF2-9018-1BB7594E824C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" guid="{BD53D579-9461-40E2-9C45-37F7118AE81F}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G12" authorId="0" guid="{BD53D579-9461-40E2-9C45-37F7118AE81F}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" guid="{F8E7AE12-423E-42A3-8982-9F43BE8FA91D}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H12" authorId="0" guid="{F8E7AE12-423E-42A3-8982-9F43BE8FA91D}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="2" guid="{01467DB1-4F82-4699-865C-1F0CCE565A33}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="I12" authorId="2" guid="{01467DB1-4F82-4699-865C-1F0CCE565A33}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="3" guid="{47756ACF-CB18-462F-BFD2-23283119E359}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="K12" authorId="3" guid="{47756ACF-CB18-462F-BFD2-23283119E359}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" guid="{9511F6DE-74E9-4309-A88D-97083C82618C}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="M12" authorId="0" guid="{9511F6DE-74E9-4309-A88D-97083C82618C}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -681,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="4" guid="{A2EF8896-8562-47B7-B8C2-21A2D3ACC904}" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="A16" authorId="4" guid="{A2EF8896-8562-47B7-B8C2-21A2D3ACC904}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -707,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="5" guid="{3BA817E8-1A19-467B-8457-98D28764C9B3}" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="A34" authorId="5" guid="{3BA817E8-1A19-467B-8457-98D28764C9B3}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,12 +746,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ucmuser</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" guid="{D80149B5-CA0C-49EC-A628-7D24F9984950}" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B5" authorId="0" guid="{D80149B5-CA0C-49EC-A628-7D24F9984950}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" guid="{0E9B2C12-A6FF-4333-99CC-FF148C059E7F}" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D8" authorId="0" guid="{0E9B2C12-A6FF-4333-99CC-FF148C059E7F}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0" guid="{B7B12A38-6DFA-474A-A276-E7A86C5612C2}" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D44" authorId="0" guid="{B7B12A38-6DFA-474A-A276-E7A86C5612C2}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -832,12 +831,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>John Elliott</author>
   </authors>
   <commentList>
-    <comment ref="C140" authorId="0" guid="{6A9C39CD-A5F1-413A-899F-65E99C0CA14E}" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C140" authorId="0" guid="{6A9C39CD-A5F1-413A-899F-65E99C0CA14E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -863,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F140" authorId="0" guid="{9490D243-B830-4BB9-B85B-239F1D592EE5}" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F140" authorId="0" guid="{9490D243-B830-4BB9-B85B-239F1D592EE5}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -894,12 +893,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sajid Mian</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" guid="{210782B3-41E6-40C0-ACC6-2EAA57F642ED}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="D7" authorId="0" guid="{210782B3-41E6-40C0-ACC6-2EAA57F642ED}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" guid="{AA110539-9276-44BD-95AC-7A7FF5A74623}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="D19" authorId="0" guid="{AA110539-9276-44BD-95AC-7A7FF5A74623}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D106" authorId="0" guid="{68F9CF28-7EEE-4B29-A50D-EDED0E1CD13E}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="D106" authorId="0" guid="{68F9CF28-7EEE-4B29-A50D-EDED0E1CD13E}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -982,13 +981,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ucmuser</author>
     <author>FMEnergy</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" guid="{9014848A-828A-4309-8768-C96F500EB517}" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I6" authorId="0" guid="{9014848A-828A-4309-8768-C96F500EB517}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" guid="{96E2AB57-D86C-4FEE-A3CF-C7E6B801E520}" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="A30" authorId="0" guid="{96E2AB57-D86C-4FEE-A3CF-C7E6B801E520}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1038,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="1" guid="{52A94E71-668D-4C51-9016-9384150824CD}" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K36" authorId="1" guid="{52A94E71-668D-4C51-9016-9384150824CD}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1662,7 +1661,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="16">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -3136,11 +3135,11 @@
     <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Comma 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 3" xfId="49"/>
+    <cellStyle name="Comma 4" xfId="54"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Currency 2" xfId="6"/>
     <cellStyle name="Explanatory Text" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
@@ -3151,16 +3150,16 @@
     <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Note 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="47"/>
+    <cellStyle name="Normal 3 2" xfId="50"/>
+    <cellStyle name="Normal 4" xfId="53"/>
+    <cellStyle name="Normal 5" xfId="55"/>
+    <cellStyle name="Note 2" xfId="48"/>
     <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Percent 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 2" xfId="51"/>
+    <cellStyle name="Percent 3" xfId="52"/>
     <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
@@ -3331,7 +3330,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{38BC0595-7456-4834-86B1-033C8020D334}" diskRevisions="1" revisionId="11233" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0C211F74-4EDD-4B6B-AE31-4533F25F99C8}" diskRevisions="1" revisionId="11247" version="12">
   <header guid="{FA031123-3E38-47B4-BAB8-7D64A8716C52}" dateTime="2018-04-04T15:46:34" maxSheetId="12" userName="James" r:id="rId439" minRId="11024" maxRId="11028">
     <sheetIdMap count="11">
       <sheetId val="1"/>
@@ -3602,6 +3601,21 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{0C211F74-4EDD-4B6B-AE31-4533F25F99C8}" dateTime="2018-05-01T15:21:31" maxSheetId="12" userName="ucmuser" r:id="rId457" minRId="11234">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3796,6 +3810,258 @@
     <oldFormula>'Chilled Water'!$C:$I,'Chilled Water'!$K:$P</oldFormula>
   </rdn>
   <rcv guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="11234" sId="11" ref="A29:XFD29" action="deleteRow">
+    <undo index="2" exp="area" ref3D="1" dr="$K$1:$P$1048576" dn="Z_507E6E96_4EC3_4333_BE0D_BDD19D4BA57B_.wvu.Cols" sId="11"/>
+    <undo index="1" exp="area" ref3D="1" dr="$C$1:$I$1048576" dn="Z_507E6E96_4EC3_4333_BE0D_BDD19D4BA57B_.wvu.Cols" sId="11"/>
+    <undo index="2" exp="area" ref3D="1" dr="$K$1:$P$1048576" dn="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" sId="11"/>
+    <undo index="1" exp="area" ref3D="1" dr="$C$1:$I$1048576" dn="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" sId="11"/>
+    <undo index="2" exp="area" ref3D="1" dr="$I$1:$P$1048576" dn="Z_10A73640_EEC6_41E7_B502_1530CC038C4B_.wvu.Cols" sId="11"/>
+    <undo index="1" exp="area" ref3D="1" dr="$C$1:$G$1048576" dn="Z_10A73640_EEC6_41E7_B502_1530CC038C4B_.wvu.Cols" sId="11"/>
+    <undo index="2" exp="area" ref3D="1" dr="$M$1:$P$1048576" dn="Z_902840B4_CA0A_4F6E_BC43_8C327A56ACC5_.wvu.Cols" sId="11"/>
+    <undo index="1" exp="area" ref3D="1" dr="$C$1:$K$1048576" dn="Z_902840B4_CA0A_4F6E_BC43_8C327A56ACC5_.wvu.Cols" sId="11"/>
+    <undo index="2" exp="area" ref3D="1" dr="$M$1:$Q$1048576" dn="Z_C9E92C5F_0D58_4CFB_9D13_E03F6AA5D0E3_.wvu.Cols" sId="11"/>
+    <undo index="1" exp="area" ref3D="1" dr="$C$1:$K$1048576" dn="Z_C9E92C5F_0D58_4CFB_9D13_E03F6AA5D0E3_.wvu.Cols" sId="11"/>
+    <undo index="0" exp="area" ref3D="1" dr="$F$1:$P$1048576" dn="Z_BAA39939_E753_438A_B867_0C9F92A74103_.wvu.Cols" sId="11"/>
+    <rfmt sheetId="11" xfDxf="1" sqref="A29:XFD29" start="0" length="0"/>
+    <rfmt sheetId="11" sqref="A29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="B29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="C29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="D29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="E29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="F29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="G29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="H29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="I29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="J29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="K29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="L29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="M29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="N29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="O29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="Q29" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="8"/>
+          <color auto="1"/>
+          <name val="Arial"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="3" formatCode="#,##0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcv guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'Utility Summary'!$A$1:$U$89</formula>
+    <oldFormula>'Utility Summary'!$A$1:$U$89</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Rows" hidden="1" oldHidden="1">
+    <formula>'Utility Summary'!$72:$76</formula>
+    <oldFormula>'Utility Summary'!$72:$76</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'Utility Summary'!$C:$I,'Utility Summary'!$K:$P</formula>
+    <oldFormula>'Utility Summary'!$C:$I,'Utility Summary'!$K:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Electricity!$C:$I,Electricity!$K:$O</formula>
+    <oldFormula>Electricity!$C:$I,Electricity!$K:$O</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Rows" hidden="1" oldHidden="1">
+    <formula>Gas!$38:$41</formula>
+    <oldFormula>Gas!$38:$41</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Gas!$C:$I,Gas!$K:$P</formula>
+    <oldFormula>Gas!$C:$I,Gas!$K:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="5" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Water!$C:$I,Water!$K:$P</formula>
+    <oldFormula>Water!$C:$I,Water!$K:$P</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'Utilities Summary Old '!$A$1:$G$159</formula>
+    <oldFormula>'Utilities Summary Old '!$A$1:$G$159</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>'Utilities Summary Old '!$1:$3</formula>
+    <oldFormula>'Utilities Summary Old '!$1:$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="8" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>'Electric old'!$1:$3</formula>
+    <oldFormula>'Electric old'!$1:$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintArea" hidden="1" oldHidden="1">
+    <formula>'Water Old'!$A$1:$G$141</formula>
+    <oldFormula>'Water Old'!$A$1:$G$141</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="10" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>'Water Old'!$1:$3</formula>
+    <oldFormula>'Water Old'!$1:$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="11" customView="1" name="Z_7E611BF3_29F9_42C0_9604_1424EEA5D170_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'Chilled Water'!$C:$I,'Chilled Water'!$K:$P</formula>
+    <oldFormula>'Chilled Water'!$C:$I,'Chilled Water'!$K:$P</oldFormula>
+  </rdn>
+  <rcv guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" action="add"/>
 </revisions>
 </file>
 
@@ -5199,10 +5465,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{38BC0595-7456-4834-86B1-033C8020D334}" name="Eric Wong" id="-868661553" dateTime="2018-04-26T15:06:44"/>
-</users>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5281,23 +5545,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5333,23 +5580,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5525,7 +5755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,12 +5945,27 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" state="hidden">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" state="hidden">
       <selection sqref="A1:C16"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" state="hidden">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" state="hidden">
+      <selection sqref="A1:C16"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" state="hidden">
+      <selection sqref="A1:C16"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" state="hidden">
+      <selection sqref="A1:C16"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" state="hidden">
       <selection sqref="A1:C16"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -5730,22 +5975,7 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" state="hidden">
-      <selection sqref="A1:C16"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" state="hidden">
-      <selection sqref="A1:C16"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" state="hidden">
-      <selection sqref="A1:C16"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" state="hidden">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" state="hidden">
       <selection sqref="A1:C16"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -5758,7 +5988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9162,7 +9392,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9175,7 +9405,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="115" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9188,7 +9418,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="115" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9201,7 +9431,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9214,7 +9444,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9227,7 +9457,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="115" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9240,7 +9470,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="115" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A91">
       <selection activeCell="E62" sqref="E62"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -9255,17 +9485,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
+    <mergeCell ref="A124:A135"/>
+    <mergeCell ref="A112:A123"/>
+    <mergeCell ref="A100:A111"/>
+    <mergeCell ref="A88:A99"/>
+    <mergeCell ref="A28:A39"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A76:A87"/>
     <mergeCell ref="A64:A75"/>
     <mergeCell ref="A52:A63"/>
     <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A124:A135"/>
-    <mergeCell ref="A112:A123"/>
-    <mergeCell ref="A100:A111"/>
-    <mergeCell ref="A88:A99"/>
-    <mergeCell ref="A28:A39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9283,15 +9513,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1903"/>
+  <dimension ref="A1:R1902"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:P1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10592,859 +10822,858 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="84"/>
       <c r="B29" s="84"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="202"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="198"/>
       <c r="Q29" s="86"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="198"/>
-      <c r="Q30" s="86"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+      <c r="A30" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B30" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C30" s="86">
         <f>4795.446/(2975/2976)</f>
         <v>4797.0579146218488</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D30" s="86">
         <f>5545.2/(2944/2976)</f>
         <v>5605.4739130434782</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E30" s="86">
         <f>6023.054/(2880/2880)</f>
         <v>6023.0540000000001</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F30" s="86">
         <f>3209.795/(2959/2976)</f>
         <v>3228.2358634673878</v>
       </c>
-      <c r="G31" s="86">
+      <c r="G30" s="86">
         <f>2039.478/(2875/2880)</f>
         <v>2043.0249182608698</v>
       </c>
-      <c r="H31" s="86">
+      <c r="H30" s="86">
         <f>2024.773/(2705/2976)</f>
         <v>2227.6245648798522</v>
       </c>
-      <c r="I31" s="86">
+      <c r="I30" s="86">
         <f>AVERAGE(411,977)</f>
         <v>694</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J30" s="86">
         <f>3444.4536/(2688/2688)</f>
         <v>3444.4535999999998</v>
       </c>
-      <c r="K31" s="86">
+      <c r="K30" s="86">
         <f>2122.867/(2236/2976)</f>
         <v>2825.4258461538466</v>
       </c>
-      <c r="L31" s="86">
+      <c r="L30" s="86">
         <f>3092.14/(2578/2880)</f>
         <v>3454.368968192397</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M30" s="86">
         <f>3081.206/(2790/2976)</f>
         <v>3286.6197333333334</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N30" s="86">
         <f>3932.9/(2153/2880)</f>
         <v>5260.915931258709</v>
       </c>
-      <c r="O31" s="201">
-        <f>SUM(C31:N31)</f>
+      <c r="O30" s="201">
+        <f>SUM(C30:N30)</f>
         <v>42890.255253211726</v>
       </c>
-      <c r="Q31" s="86"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+      <c r="Q30" s="86"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B31" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="87">
-        <f>ROUND(C31*C$4,2)</f>
+      <c r="C31" s="87">
+        <f>ROUND(C30*C$4,2)</f>
         <v>538.97</v>
       </c>
-      <c r="D32" s="87">
-        <f t="shared" ref="D32:N32" si="14">ROUND(D31*D$4,2)</f>
+      <c r="D31" s="87">
+        <f t="shared" ref="D31:N31" si="14">ROUND(D30*D$4,2)</f>
         <v>629.79999999999995</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E31" s="87">
         <f t="shared" si="14"/>
         <v>676.72</v>
       </c>
-      <c r="F32" s="87">
+      <c r="F31" s="87">
         <f t="shared" si="14"/>
         <v>362.71</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G31" s="87">
         <f t="shared" si="14"/>
         <v>229.54</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H31" s="87">
         <f t="shared" si="14"/>
         <v>250.28</v>
       </c>
-      <c r="I32" s="87">
-        <f t="shared" ref="I32" si="15">ROUND(I31*I$4,2)</f>
+      <c r="I31" s="87">
+        <f t="shared" ref="I31" si="15">ROUND(I30*I$4,2)</f>
         <v>77.97</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J31" s="87">
         <f t="shared" si="14"/>
         <v>387</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K31" s="87">
         <f t="shared" si="14"/>
         <v>317.45</v>
       </c>
-      <c r="L32" s="87">
+      <c r="L31" s="87">
         <f t="shared" si="14"/>
         <v>388.12</v>
       </c>
-      <c r="M32" s="87">
+      <c r="M31" s="87">
         <f t="shared" si="14"/>
         <v>369.27</v>
       </c>
-      <c r="N32" s="87">
+      <c r="N31" s="87">
         <f t="shared" si="14"/>
         <v>591.09</v>
       </c>
-      <c r="O32" s="202">
-        <f>SUM(C32:N32)</f>
+      <c r="O31" s="202">
+        <f>SUM(C31:N31)</f>
         <v>4818.92</v>
       </c>
+      <c r="Q31" s="86"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="198"/>
       <c r="Q32" s="86"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="198"/>
-      <c r="Q33" s="86"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+      <c r="A33" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B33" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C33" s="86">
         <f>2720.93/(2974/2976)</f>
         <v>2722.7598117014122</v>
       </c>
-      <c r="D34" s="86">
+      <c r="D33" s="86">
         <f>3904.12/(2975/2976)</f>
         <v>3905.4323092436975</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E33" s="86">
         <f>4342.08/(2877/2880)</f>
         <v>4346.6077163712198</v>
       </c>
-      <c r="F34" s="86">
+      <c r="F33" s="86">
         <f>2008.412/(2954/2976)</f>
         <v>2023.3697061611376</v>
       </c>
-      <c r="G34" s="86">
+      <c r="G33" s="86">
         <f>1638.584/(2816/2880)</f>
         <v>1675.8245454545456</v>
       </c>
-      <c r="H34" s="86">
+      <c r="H33" s="86">
         <f>739.988/(2706/2976)</f>
         <v>813.82272283813757</v>
       </c>
-      <c r="I34" s="86">
+      <c r="I33" s="86">
         <f>AVERAGE(63, 413)</f>
         <v>238</v>
       </c>
-      <c r="J34" s="209">
+      <c r="J33" s="209">
         <f>1121.2353/(2688/2688)</f>
         <v>1121.2353000000001</v>
       </c>
-      <c r="K34" s="86">
+      <c r="K33" s="86">
         <f>1042.735/(2243/2976)</f>
         <v>1383.4950334373607</v>
       </c>
-      <c r="L34" s="86">
+      <c r="L33" s="86">
         <f>1117.425/(2663/2880)</f>
         <v>1208.4806609087495</v>
       </c>
-      <c r="M34" s="86">
+      <c r="M33" s="86">
         <f>3081.206/(2790/2976)</f>
         <v>3286.6197333333334</v>
       </c>
-      <c r="N34" s="86">
+      <c r="N33" s="86">
         <f>2221.5/(2214/2880)</f>
         <v>2889.7560975609754</v>
       </c>
-      <c r="O34" s="201">
-        <f>SUM(C34:N34)</f>
+      <c r="O33" s="201">
+        <f>SUM(C33:N33)</f>
         <v>25615.403637010568</v>
       </c>
-      <c r="Q34" s="86"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="129" t="s">
+      <c r="Q33" s="86"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B34" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="87">
-        <f>ROUND(C34*C$4,2)</f>
+      <c r="C34" s="87">
+        <f>ROUND(C33*C$4,2)</f>
         <v>305.92</v>
       </c>
-      <c r="D35" s="87">
-        <f t="shared" ref="D35:N35" si="16">ROUND(D34*D$4,2)</f>
+      <c r="D34" s="87">
+        <f t="shared" ref="D34:N34" si="16">ROUND(D33*D$4,2)</f>
         <v>438.79</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E34" s="87">
         <f t="shared" si="16"/>
         <v>488.36</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F34" s="87">
         <f t="shared" si="16"/>
         <v>227.34</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G34" s="87">
         <f t="shared" si="16"/>
         <v>188.29</v>
       </c>
-      <c r="H35" s="87">
+      <c r="H34" s="87">
         <f t="shared" si="16"/>
         <v>91.44</v>
       </c>
-      <c r="I35" s="87">
-        <f t="shared" ref="I35" si="17">ROUND(I34*I$4,2)</f>
+      <c r="I34" s="87">
+        <f t="shared" ref="I34" si="17">ROUND(I33*I$4,2)</f>
         <v>26.74</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J34" s="87">
         <f t="shared" si="16"/>
         <v>125.98</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K34" s="87">
         <f t="shared" si="16"/>
         <v>155.44</v>
       </c>
-      <c r="L35" s="87">
+      <c r="L34" s="87">
         <f t="shared" si="16"/>
         <v>135.78</v>
       </c>
-      <c r="M35" s="87">
+      <c r="M34" s="87">
         <f t="shared" si="16"/>
         <v>369.27</v>
       </c>
-      <c r="N35" s="87">
+      <c r="N34" s="87">
         <f t="shared" si="16"/>
         <v>324.68</v>
       </c>
-      <c r="O35" s="202">
-        <f>SUM(C35:N35)</f>
+      <c r="O34" s="202">
+        <f>SUM(C34:N34)</f>
         <v>2878.03</v>
       </c>
+      <c r="Q34" s="86"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="202"/>
       <c r="Q35" s="86"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="202"/>
-      <c r="Q36" s="86"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="84" t="s">
+      <c r="A36" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B36" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C36" s="86">
         <f>24991.57/(2940/2976)</f>
         <v>25297.589224489795</v>
       </c>
-      <c r="D37" s="86">
+      <c r="D36" s="86">
         <f>32665.07/(2953/2976)</f>
         <v>32919.488086691497</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E36" s="86">
         <f>30405.171/(2828/2880)</f>
         <v>30964.247694483733</v>
       </c>
-      <c r="F37" s="86">
+      <c r="F36" s="86">
         <f>14162.438/(2796/2976)</f>
         <v>15074.182935622317</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G36" s="86">
         <f>3858.853/(1738/2880)</f>
         <v>6394.4169390103571</v>
       </c>
-      <c r="H37" s="86">
+      <c r="H36" s="86">
         <f>(1495+7395)/2</f>
         <v>4445</v>
       </c>
-      <c r="I37" s="86">
+      <c r="I36" s="86">
         <f>AVERAGE(4163,562)</f>
         <v>2362.5</v>
       </c>
-      <c r="J37" s="86">
+      <c r="J36" s="86">
         <f>2549.25749/(2366/2688)</f>
         <v>2896.1978584615381</v>
       </c>
-      <c r="K37" s="86">
+      <c r="K36" s="86">
         <f>4474.4/(2224/2976)</f>
         <v>5987.3266187050358</v>
       </c>
-      <c r="L37" s="86">
+      <c r="L36" s="86">
         <f>8254.52/(1908/2880)</f>
         <v>12459.652830188681</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M36" s="86">
         <f>11779.66/(2427/2976)</f>
         <v>14444.280247218789</v>
       </c>
-      <c r="N37" s="86">
+      <c r="N36" s="86">
         <f>11298.95/(1581/2880)</f>
         <v>20582.5275142315</v>
       </c>
-      <c r="O37" s="201">
-        <f>SUM(C37:N37)</f>
+      <c r="O36" s="201">
+        <f>SUM(C36:N36)</f>
         <v>173827.40994910325</v>
       </c>
-      <c r="Q37" s="86"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="129" t="s">
+      <c r="Q36" s="86"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B37" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="87">
-        <f>ROUND(C37*C$4,2)</f>
+      <c r="C37" s="87">
+        <f>ROUND(C36*C$4,2)</f>
         <v>2842.31</v>
       </c>
-      <c r="D38" s="87">
-        <f t="shared" ref="D38:N38" si="18">ROUND(D37*D$4,2)</f>
+      <c r="D37" s="87">
+        <f t="shared" ref="D37:N37" si="18">ROUND(D36*D$4,2)</f>
         <v>3698.67</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E37" s="87">
         <f t="shared" si="18"/>
         <v>3478.99</v>
       </c>
-      <c r="F38" s="87">
+      <c r="F37" s="87">
         <f t="shared" si="18"/>
         <v>1693.66</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G37" s="87">
         <f t="shared" si="18"/>
         <v>718.44</v>
       </c>
-      <c r="H38" s="87">
+      <c r="H37" s="87">
         <f t="shared" si="18"/>
         <v>499.42</v>
       </c>
-      <c r="I38" s="87">
-        <f t="shared" ref="I38" si="19">ROUND(I37*I$4,2)</f>
+      <c r="I37" s="87">
+        <f t="shared" ref="I37" si="19">ROUND(I36*I$4,2)</f>
         <v>265.44</v>
       </c>
-      <c r="J38" s="87">
+      <c r="J37" s="87">
         <f t="shared" si="18"/>
         <v>325.39999999999998</v>
       </c>
-      <c r="K38" s="87">
+      <c r="K37" s="87">
         <f t="shared" si="18"/>
         <v>672.71</v>
       </c>
-      <c r="L38" s="87">
+      <c r="L37" s="87">
         <f t="shared" si="18"/>
         <v>1399.9</v>
       </c>
-      <c r="M38" s="87">
+      <c r="M37" s="87">
         <f t="shared" si="18"/>
         <v>1622.89</v>
       </c>
-      <c r="N38" s="87">
+      <c r="N37" s="87">
         <f t="shared" si="18"/>
         <v>2312.5500000000002</v>
       </c>
-      <c r="O38" s="202">
-        <f>SUM(C38:N38)</f>
+      <c r="O37" s="202">
+        <f>SUM(C37:N37)</f>
         <v>19530.38</v>
       </c>
+      <c r="Q37" s="86"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="129"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="202"/>
       <c r="Q38" s="86"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="129"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="202"/>
+      <c r="A39" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="86">
+        <f>12870.31/(2976/2976)</f>
+        <v>12870.31</v>
+      </c>
+      <c r="D39" s="86">
+        <f>17405.02/(2975/2976)</f>
+        <v>17410.870426890757</v>
+      </c>
+      <c r="E39" s="252">
+        <f>14832.79/(2880/2880)</f>
+        <v>14832.79</v>
+      </c>
+      <c r="F39" s="209">
+        <f>6319.311/(2968/2976)</f>
+        <v>6336.3441832884091</v>
+      </c>
+      <c r="G39" s="209">
+        <f>1692.6198/(2876/2880)</f>
+        <v>1694.9739304589707</v>
+      </c>
+      <c r="H39" s="209">
+        <f>605.884/(2976/2976)</f>
+        <v>605.88400000000001</v>
+      </c>
+      <c r="I39" s="209">
+        <f>727.363/(2976/2976)</f>
+        <v>727.36300000000006</v>
+      </c>
+      <c r="J39" s="209">
+        <f>4727.4/(2400/2688)</f>
+        <v>5294.6879999999992</v>
+      </c>
+      <c r="K39" s="209">
+        <f>1673.704/(2210/2976)</f>
+        <v>2253.8204090497738</v>
+      </c>
+      <c r="L39" s="209">
+        <f>4996.9/(2814/2880)</f>
+        <v>5114.0980810234541</v>
+      </c>
+      <c r="M39" s="209">
+        <f>4414.31/(2882/2976)</f>
+        <v>4558.2881887578078</v>
+      </c>
+      <c r="N39" s="209">
+        <f>1223.9/(659/2880)</f>
+        <v>5348.7587253414267</v>
+      </c>
+      <c r="O39" s="201">
+        <f>SUM(C39:N39)</f>
+        <v>77048.188944810594</v>
+      </c>
       <c r="Q39" s="86"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="86">
-        <f>12870.31/(2976/2976)</f>
-        <v>12870.31</v>
-      </c>
-      <c r="D40" s="86">
-        <f>17405.02/(2975/2976)</f>
-        <v>17410.870426890757</v>
-      </c>
-      <c r="E40" s="252">
-        <f>14832.79/(2880/2880)</f>
-        <v>14832.79</v>
-      </c>
-      <c r="F40" s="209">
-        <f>6319.311/(2968/2976)</f>
-        <v>6336.3441832884091</v>
-      </c>
-      <c r="G40" s="209">
-        <f>1692.6198/(2876/2880)</f>
-        <v>1694.9739304589707</v>
-      </c>
-      <c r="H40" s="209">
-        <f>605.884/(2976/2976)</f>
-        <v>605.88400000000001</v>
-      </c>
-      <c r="I40" s="209">
-        <f>727.363/(2976/2976)</f>
-        <v>727.36300000000006</v>
-      </c>
-      <c r="J40" s="209">
-        <f>4727.4/(2400/2688)</f>
-        <v>5294.6879999999992</v>
-      </c>
-      <c r="K40" s="209">
-        <f>1673.704/(2210/2976)</f>
-        <v>2253.8204090497738</v>
-      </c>
-      <c r="L40" s="209">
-        <f>4996.9/(2814/2880)</f>
-        <v>5114.0980810234541</v>
-      </c>
-      <c r="M40" s="209">
-        <f>4414.31/(2882/2976)</f>
-        <v>4558.2881887578078</v>
-      </c>
-      <c r="N40" s="209">
-        <f>1223.9/(659/2880)</f>
-        <v>5348.7587253414267</v>
-      </c>
-      <c r="O40" s="201">
-        <f>SUM(C40:N40)</f>
-        <v>77048.188944810594</v>
-      </c>
-      <c r="Q40" s="86"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="87">
-        <f>ROUND(C40*C$4,2)</f>
+      <c r="C40" s="87">
+        <f>ROUND(C39*C$4,2)</f>
         <v>1446.04</v>
       </c>
-      <c r="D41" s="87">
-        <f t="shared" ref="D41:N41" si="20">ROUND(D40*D$4,2)</f>
+      <c r="D40" s="87">
+        <f t="shared" ref="D40:N40" si="20">ROUND(D39*D$4,2)</f>
         <v>1956.2</v>
       </c>
-      <c r="E41" s="87">
+      <c r="E40" s="87">
         <f t="shared" si="20"/>
         <v>1666.54</v>
       </c>
-      <c r="F41" s="87">
+      <c r="F40" s="87">
         <f t="shared" si="20"/>
         <v>711.92</v>
       </c>
-      <c r="G41" s="87">
+      <c r="G40" s="87">
         <f t="shared" si="20"/>
         <v>190.44</v>
       </c>
-      <c r="H41" s="87">
+      <c r="H40" s="87">
         <f t="shared" si="20"/>
         <v>68.069999999999993</v>
       </c>
-      <c r="I41" s="87">
-        <f t="shared" ref="I41" si="21">ROUND(I40*I$4,2)</f>
+      <c r="I40" s="87">
+        <f t="shared" ref="I40" si="21">ROUND(I39*I$4,2)</f>
         <v>81.72</v>
       </c>
-      <c r="J41" s="87">
+      <c r="J40" s="87">
         <f t="shared" si="20"/>
         <v>594.88</v>
       </c>
-      <c r="K41" s="87">
+      <c r="K40" s="87">
         <f t="shared" si="20"/>
         <v>253.23</v>
       </c>
-      <c r="L41" s="87">
+      <c r="L40" s="87">
         <f t="shared" si="20"/>
         <v>574.59</v>
       </c>
-      <c r="M41" s="87">
+      <c r="M40" s="87">
         <f t="shared" si="20"/>
         <v>512.15</v>
       </c>
-      <c r="N41" s="87">
+      <c r="N40" s="87">
         <f t="shared" si="20"/>
         <v>600.96</v>
       </c>
-      <c r="O41" s="203">
-        <f>SUM(C41:N41)</f>
+      <c r="O40" s="203">
+        <f>SUM(C40:N40)</f>
         <v>8656.739999999998</v>
       </c>
+      <c r="Q40" s="86"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="84"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="202"/>
       <c r="Q41" s="86"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="129" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="221"/>
-      <c r="D42" s="221"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="202"/>
-      <c r="Q42" s="86"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="84" t="s">
+      <c r="A42" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B42" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C42" s="86">
         <f>11779.26/(2601/2976)</f>
         <v>13477.538546712802</v>
       </c>
-      <c r="D43" s="86">
+      <c r="D42" s="86">
         <f>18186.92/(2976/2976)</f>
         <v>18186.919999999998</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E42" s="86">
         <f>16093.697/(2708/2880)</f>
         <v>17115.896366322009</v>
       </c>
-      <c r="F43" s="209">
+      <c r="F42" s="209">
         <f>8357.74/(2970/2976)</f>
         <v>8374.6243232323231</v>
       </c>
-      <c r="G43" s="209">
+      <c r="G42" s="209">
         <f>5039.603/(2879/2880)</f>
         <v>5041.3534699548454</v>
       </c>
-      <c r="H43" s="209">
+      <c r="H42" s="209">
         <f>2338.682/(2976/2976)</f>
         <v>2338.6819999999998</v>
       </c>
-      <c r="I43" s="209">
+      <c r="I42" s="209">
         <f>2479.737/(2976/2976)</f>
         <v>2479.7370000000001</v>
       </c>
-      <c r="J43" s="209">
+      <c r="J42" s="209">
         <f>2903.63395/(2688/2688)</f>
         <v>2903.6339499999999</v>
       </c>
-      <c r="K43" s="209">
+      <c r="K42" s="209">
         <f>2501.5/(2229/2976)</f>
         <v>3339.8223418573348</v>
       </c>
-      <c r="L43" s="209">
+      <c r="L42" s="209">
         <f>3847.623/(1695/2880)</f>
         <v>6537.5541238938058</v>
       </c>
-      <c r="M43" s="209">
+      <c r="M42" s="209">
         <f>6004.19/(2875/2976)</f>
         <v>6215.1198052173904</v>
       </c>
-      <c r="N43" s="209">
+      <c r="N42" s="209">
         <f>5618.2/(1755/2880)</f>
         <v>9219.6102564102566</v>
       </c>
-      <c r="O43" s="201">
-        <f>SUM(C43:N43)</f>
+      <c r="O42" s="201">
+        <f>SUM(C42:N42)</f>
         <v>95230.492183600771</v>
       </c>
-      <c r="Q43" s="86"/>
-    </row>
-    <row r="44" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="84" t="s">
+      <c r="Q42" s="86"/>
+    </row>
+    <row r="43" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B43" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="87">
-        <f>ROUND(C43*C$4,2)</f>
+      <c r="C43" s="87">
+        <f>ROUND(C42*C$4,2)</f>
         <v>1514.27</v>
       </c>
-      <c r="D44" s="87">
-        <f t="shared" ref="D44:N44" si="22">ROUND(D43*D$4,2)</f>
+      <c r="D43" s="87">
+        <f t="shared" ref="D43:N43" si="22">ROUND(D42*D$4,2)</f>
         <v>2043.39</v>
       </c>
-      <c r="E44" s="87">
+      <c r="E43" s="87">
         <f t="shared" si="22"/>
         <v>1923.06</v>
       </c>
-      <c r="F44" s="87">
+      <c r="F43" s="87">
         <f t="shared" si="22"/>
         <v>940.93</v>
       </c>
-      <c r="G44" s="87">
+      <c r="G43" s="87">
         <f t="shared" si="22"/>
         <v>566.41999999999996</v>
       </c>
-      <c r="H44" s="87">
+      <c r="H43" s="87">
         <f t="shared" si="22"/>
         <v>262.76</v>
       </c>
-      <c r="I44" s="87">
-        <f t="shared" ref="I44" si="23">ROUND(I43*I$4,2)</f>
+      <c r="I43" s="87">
+        <f t="shared" ref="I43" si="23">ROUND(I42*I$4,2)</f>
         <v>278.61</v>
       </c>
-      <c r="J44" s="87">
+      <c r="J43" s="87">
         <f t="shared" si="22"/>
         <v>326.24</v>
       </c>
-      <c r="K44" s="87">
+      <c r="K43" s="87">
         <f t="shared" si="22"/>
         <v>375.25</v>
       </c>
-      <c r="L44" s="87">
+      <c r="L43" s="87">
         <f t="shared" si="22"/>
         <v>734.53</v>
       </c>
-      <c r="M44" s="87">
+      <c r="M43" s="87">
         <f t="shared" si="22"/>
         <v>698.3</v>
       </c>
-      <c r="N44" s="87">
+      <c r="N43" s="87">
         <f t="shared" si="22"/>
         <v>1035.8699999999999</v>
       </c>
-      <c r="O44" s="203">
-        <f>SUM(C44:N44)</f>
+      <c r="O43" s="203">
+        <f>SUM(C43:N43)</f>
         <v>10699.630000000001</v>
       </c>
+      <c r="Q43" s="86"/>
+    </row>
+    <row r="44" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="84"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="202"/>
       <c r="Q44" s="86"/>
     </row>
     <row r="45" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="202"/>
-      <c r="Q45" s="86"/>
-    </row>
-    <row r="46" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="84" t="s">
+      <c r="A45" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B45" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="86">
+      <c r="C45" s="86">
         <f>41880.06/(2818/2976)</f>
         <v>44228.196792051102</v>
       </c>
-      <c r="D46" s="86">
+      <c r="D45" s="86">
         <f>47244.88/(2976/2976)</f>
         <v>47244.88</v>
       </c>
-      <c r="E46" s="86">
+      <c r="E45" s="86">
         <f>42013.59/(2880/2880)</f>
         <v>42013.59</v>
       </c>
-      <c r="F46" s="209">
+      <c r="F45" s="209">
         <f>21542.644/(2970/2976)</f>
         <v>21586.164492929296</v>
       </c>
-      <c r="G46" s="209">
+      <c r="G45" s="209">
         <f>9430.432/(2879/2880)</f>
         <v>9433.7075929142084</v>
       </c>
-      <c r="H46" s="209">
+      <c r="H45" s="209">
         <f>2476.523/(2976/2976)</f>
         <v>2476.5230000000001</v>
       </c>
-      <c r="I46" s="209">
+      <c r="I45" s="209">
         <f>2105.42/(2976/2976)</f>
         <v>2105.42</v>
       </c>
-      <c r="J46" s="209">
+      <c r="J45" s="209">
         <f>1008.806/(2687/2688)</f>
         <v>1009.1814395236323</v>
       </c>
-      <c r="K46" s="209">
+      <c r="K45" s="209">
         <f>9658.122/(2352/2976)</f>
         <v>12220.480897959183</v>
       </c>
-      <c r="L46" s="209">
+      <c r="L45" s="209">
         <f>12119.5/(2809/2880)</f>
         <v>12425.831256674974</v>
       </c>
-      <c r="M46" s="209">
+      <c r="M45" s="209">
         <f>17341.438/(2069/2976)</f>
         <v>24943.508694055097</v>
       </c>
-      <c r="N46" s="209">
+      <c r="N45" s="209">
         <f>22074.6/(2320/2880)</f>
         <v>27402.951724137929</v>
       </c>
-      <c r="O46" s="201">
-        <f>SUM(C46:N46)</f>
+      <c r="O45" s="201">
+        <f>SUM(C45:N45)</f>
         <v>247090.43589024543</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84" t="s">
+    <row r="46" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="84"/>
+      <c r="B46" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="87">
-        <f>ROUND(C46*C$4,2)</f>
+      <c r="C46" s="87">
+        <f>ROUND(C45*C$4,2)</f>
         <v>4969.26</v>
       </c>
-      <c r="D47" s="87">
-        <f t="shared" ref="D47:N47" si="24">ROUND(D46*D$4,2)</f>
+      <c r="D46" s="87">
+        <f t="shared" ref="D46:N46" si="24">ROUND(D45*D$4,2)</f>
         <v>5308.2</v>
       </c>
-      <c r="E47" s="87">
+      <c r="E46" s="87">
         <f t="shared" si="24"/>
         <v>4720.4399999999996</v>
       </c>
-      <c r="F47" s="87">
+      <c r="F46" s="87">
         <f t="shared" si="24"/>
         <v>2425.31</v>
       </c>
-      <c r="G47" s="87">
+      <c r="G46" s="87">
         <f t="shared" si="24"/>
         <v>1059.92</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H46" s="87">
         <f t="shared" si="24"/>
         <v>278.25</v>
       </c>
-      <c r="I47" s="87">
-        <f t="shared" ref="I47" si="25">ROUND(I46*I$4,2)</f>
+      <c r="I46" s="87">
+        <f t="shared" ref="I46" si="25">ROUND(I45*I$4,2)</f>
         <v>236.55</v>
       </c>
-      <c r="J47" s="87">
+      <c r="J46" s="87">
         <f t="shared" si="24"/>
         <v>113.39</v>
       </c>
-      <c r="K47" s="87">
+      <c r="K46" s="87">
         <f t="shared" si="24"/>
         <v>1373.03</v>
       </c>
-      <c r="L47" s="87">
+      <c r="L46" s="87">
         <f t="shared" si="24"/>
         <v>1396.1</v>
       </c>
-      <c r="M47" s="87">
+      <c r="M46" s="87">
         <f t="shared" si="24"/>
         <v>2802.53</v>
       </c>
-      <c r="N47" s="87">
+      <c r="N46" s="87">
         <f t="shared" si="24"/>
         <v>3078.86</v>
       </c>
-      <c r="O47" s="203">
-        <f>SUM(C47:N47)</f>
+      <c r="O46" s="203">
+        <f>SUM(C46:N46)</f>
         <v>27761.839999999993</v>
       </c>
+    </row>
+    <row r="47" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="129"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="202"/>
     </row>
     <row r="48" spans="1:17" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="129"/>
@@ -11463,172 +11692,175 @@
       <c r="N48" s="87"/>
       <c r="O48" s="202"/>
     </row>
-    <row r="49" spans="1:16" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="129"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="202"/>
-    </row>
-    <row r="50" spans="1:16" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="204"/>
+    <row r="49" spans="1:16" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="204"/>
+    </row>
+    <row r="50" spans="1:16" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="90"/>
+      <c r="C50" s="86">
+        <f>C6+C45+C9+C12+C15+C18+C21+C24+C27+C30+C33+C36+C39+C42</f>
+        <v>165011.54375127319</v>
+      </c>
+      <c r="D50" s="86">
+        <f>D6+D45+D9+D12+D15+D18+D21+D24+D27+D30+D33+D36+D39+D42</f>
+        <v>193906.28002953139</v>
+      </c>
+      <c r="E50" s="86">
+        <f>E6+E45+E9+E12+E15+E18+E21+E24+E27+E30+E33+E36+E39+E42</f>
+        <v>169798.05949073518</v>
+      </c>
+      <c r="F50" s="86">
+        <f>F6+F45+F9+F12+F15+F18+F21+F24+F27+F30+F33+F36+F39+F42</f>
+        <v>98783.295657243027</v>
+      </c>
+      <c r="G50" s="86">
+        <f>G6+G45+G9+G12+G15+G18+G21+G24+G27+G30+G33+G36+G39+G42</f>
+        <v>60100.743376747749</v>
+      </c>
+      <c r="H50" s="86">
+        <f>H6+H45+H9+H12+H15+H18+H21+H24+H27+H30+H33+H36+H39+H42</f>
+        <v>24875.153319698715</v>
+      </c>
+      <c r="I50" s="86">
+        <f>I6+I45+I9+I12+I15+I18+I21+I24+I27+I30+I33+I36+I39+I42</f>
+        <v>15535.52</v>
+      </c>
+      <c r="J50" s="86">
+        <f>J6+J45+J9+J12+J15+J18+J21+J24+J27+J30+J33+J36+J39+J42</f>
+        <v>27846.357347985169</v>
+      </c>
+      <c r="K50" s="86">
+        <f>K6+K45+K9+K12+K15+K18+K21+K24+K27+K30+K33+K36+K39+K42</f>
+        <v>43552.696499932252</v>
+      </c>
+      <c r="L50" s="86">
+        <f>L6+L45+L9+L12+L15+L18+L21+L24+L27+L30+L33+L36+L39+L42</f>
+        <v>55542.65278024695</v>
+      </c>
+      <c r="M50" s="86">
+        <f>M6+M45+M9+M12+M15+M18+M21+M24+M27+M30+M33+M36+M39+M42</f>
+        <v>84051.274248311078</v>
+      </c>
+      <c r="N50" s="86">
+        <f>N6+N45+N9+N12+N15+N18+N21+N24+N27+N30+N33+N36+N39+N42</f>
+        <v>109143.07201120049</v>
+      </c>
+      <c r="O50" s="201">
+        <f>O6+O9+O12+O15+O18+O21+O24+O27+O30+O33+O36+O39+O42+O45</f>
+        <v>1048146.6485129052</v>
+      </c>
+      <c r="P50" s="146">
+        <f>SUM(C50:N50)</f>
+        <v>1048146.6485129051</v>
+      </c>
     </row>
     <row r="51" spans="1:16" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="86">
-        <f t="shared" ref="C51:N51" si="26">C6+C46+C9+C12+C15+C18+C21+C24+C27+C31+C34+C37+C40+C43</f>
-        <v>165011.54375127319</v>
-      </c>
-      <c r="D51" s="86">
-        <f>D6+D46+D9+D12+D15+D18+D21+D24+D27+D31+D34+D37+D40+D43</f>
-        <v>193906.28002953139</v>
-      </c>
-      <c r="E51" s="86">
-        <f>E6+E46+E9+E12+E15+E18+E21+E24+E27+E31+E34+E37+E40+E43</f>
-        <v>169798.05949073518</v>
-      </c>
-      <c r="F51" s="86">
-        <f t="shared" si="26"/>
-        <v>98783.295657243027</v>
-      </c>
-      <c r="G51" s="86">
-        <f t="shared" si="26"/>
-        <v>60100.743376747749</v>
-      </c>
-      <c r="H51" s="86">
-        <f t="shared" si="26"/>
-        <v>24875.153319698715</v>
-      </c>
-      <c r="I51" s="86">
-        <f>I6+I46+I9+I12+I15+I18+I21+I24+I27+I31+I34+I37+I40+I43</f>
-        <v>15535.52</v>
-      </c>
-      <c r="J51" s="86">
-        <f t="shared" si="26"/>
-        <v>27846.357347985169</v>
-      </c>
-      <c r="K51" s="86">
-        <f t="shared" si="26"/>
-        <v>43552.696499932252</v>
-      </c>
-      <c r="L51" s="86">
-        <f t="shared" si="26"/>
-        <v>55542.65278024695</v>
-      </c>
-      <c r="M51" s="86">
-        <f t="shared" si="26"/>
-        <v>84051.274248311078</v>
-      </c>
-      <c r="N51" s="86">
-        <f t="shared" si="26"/>
-        <v>109143.07201120049</v>
-      </c>
-      <c r="O51" s="201">
-        <f>O6+O9+O12+O15+O18+O21+O24+O27+O31+O34+O37+O40+O43+O46</f>
-        <v>1048146.6485129052</v>
-      </c>
-      <c r="P51" s="146">
+        <v>116</v>
+      </c>
+      <c r="C51" s="125">
+        <f>C7+C10+C46+C13+C16+C19+C22+C25+C28+C31+C34+C37+C40+C43</f>
+        <v>18539.86</v>
+      </c>
+      <c r="D51" s="125">
+        <f>D7+D10+D46+D13+D16+D19+D22+D25+D28+D31+D34+D37+D40+D43</f>
+        <v>21786.329999999998</v>
+      </c>
+      <c r="E51" s="125">
+        <f>E7+E10+E46+E13+E16+E19+E22+E25+E28+E31+E34+E37+E40+E43</f>
+        <v>19077.670000000002</v>
+      </c>
+      <c r="F51" s="125">
+        <f>F7+F10+F46+F13+F16+F19+F22+F25+F28+F31+F34+F37+F40+F43</f>
+        <v>11098.810000000001</v>
+      </c>
+      <c r="G51" s="125">
+        <f>G7+G10+G46+G13+G16+G19+G22+G25+G28+G31+G34+G37+G40+G43</f>
+        <v>6752.62</v>
+      </c>
+      <c r="H51" s="125">
+        <f>H7+H10+H46+H13+H16+H19+H22+H25+H28+H31+H34+H37+H40+H43</f>
+        <v>2794.84</v>
+      </c>
+      <c r="I51" s="125">
+        <f>I7+I10+I46+I13+I16+I19+I22+I25+I28+I31+I34+I37+I40+I43</f>
+        <v>1745.4900000000002</v>
+      </c>
+      <c r="J51" s="125">
+        <f>J7+J10+J46+J13+J16+J19+J22+J25+J28+J31+J34+J37+J40+J43</f>
+        <v>3128.67</v>
+      </c>
+      <c r="K51" s="125">
+        <f>K7+K10+K46+K13+K16+K19+K22+K25+K28+K31+K34+K37+K40+K43</f>
+        <v>4893.3599999999988</v>
+      </c>
+      <c r="L51" s="125">
+        <f>L7+L10+L46+L13+L16+L19+L22+L25+L28+L31+L34+L37+L40+L43</f>
+        <v>6240.4900000000007</v>
+      </c>
+      <c r="M51" s="125">
+        <f>M7+M10+M46+M13+M16+M19+M22+M25+M28+M31+M34+M37+M40+M43</f>
+        <v>9443.6</v>
+      </c>
+      <c r="N51" s="125">
+        <f>N7+N10+N46+N13+N16+N19+N22+N25+N28+N31+N34+N37+N40+N43</f>
+        <v>12262.779999999999</v>
+      </c>
+      <c r="O51" s="202">
+        <f>O7+O10+O13+O16+O19+O22+O25+O28+O31+O34+O37+O40+O43+O46</f>
+        <v>117764.51999999999</v>
+      </c>
+      <c r="P51" s="125">
         <f>SUM(C51:N51)</f>
-        <v>1048146.6485129051</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="60" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="125">
-        <f t="shared" ref="C52:N52" si="27">C7+C10+C47+C13+C16+C19+C22+C25+C28+C32+C35+C38+C41+C44</f>
-        <v>18539.86</v>
-      </c>
-      <c r="D52" s="125">
-        <f>D7+D10+D47+D13+D16+D19+D22+D25+D28+D32+D35+D38+D41+D44</f>
-        <v>21786.329999999998</v>
-      </c>
-      <c r="E52" s="125">
-        <f>E7+E10+E47+E13+E16+E19+E22+E25+E28+E32+E35+E38+E41+E44</f>
-        <v>19077.670000000002</v>
-      </c>
-      <c r="F52" s="125">
-        <f t="shared" si="27"/>
-        <v>11098.810000000001</v>
-      </c>
-      <c r="G52" s="125">
-        <f t="shared" si="27"/>
-        <v>6752.62</v>
-      </c>
-      <c r="H52" s="125">
-        <f t="shared" si="27"/>
-        <v>2794.84</v>
-      </c>
-      <c r="I52" s="125">
-        <f t="shared" si="27"/>
-        <v>1745.4900000000002</v>
-      </c>
-      <c r="J52" s="125">
-        <f t="shared" si="27"/>
-        <v>3128.67</v>
-      </c>
-      <c r="K52" s="125">
-        <f t="shared" si="27"/>
-        <v>4893.3599999999988</v>
-      </c>
-      <c r="L52" s="125">
-        <f t="shared" si="27"/>
-        <v>6240.4900000000007</v>
-      </c>
-      <c r="M52" s="125">
-        <f t="shared" si="27"/>
-        <v>9443.6</v>
-      </c>
-      <c r="N52" s="125">
-        <f t="shared" si="27"/>
-        <v>12262.779999999999</v>
-      </c>
-      <c r="O52" s="202">
-        <f>O7+O10+O13+O16+O19+O22+O25+O28+O32+O35+O38+O41+O44+O47</f>
-        <v>117764.51999999999</v>
-      </c>
-      <c r="P52" s="125">
-        <f>SUM(C52:N52)</f>
         <v>117764.52</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="94"/>
+      <c r="O54"/>
+      <c r="P54" s="104"/>
+    </row>
+    <row r="55" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B55" s="60"/>
       <c r="C55" s="94"/>
@@ -11644,68 +11876,72 @@
       <c r="M55" s="60"/>
       <c r="N55" s="94"/>
       <c r="O55"/>
-      <c r="P55" s="104"/>
-    </row>
-    <row r="56" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="94"/>
-      <c r="O56"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-    </row>
-    <row r="101" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R101">
-        <f>(R41-Q41)/58*28</f>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
+    </row>
+    <row r="100" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R100">
+        <f>(R40-Q40)/58*28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="1903" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L1903" s="94">
+    <row r="1902" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L1902" s="94">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="130" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:P1048576"/>
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="130" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="130" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="90" fitToPage="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="72" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="150" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="72" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="90" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="72" orientation="landscape" r:id="rId4"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="72" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="130" fitToPage="1" hiddenColumns="1">
@@ -11713,36 +11949,12 @@
       <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="72" orientation="landscape" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="72" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="90" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="72" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="150" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="72" orientation="landscape" r:id="rId6"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="90" fitToPage="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="130" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:P1048576"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="72" orientation="landscape" r:id="rId7"/>
@@ -11759,17 +11971,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="17" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="16" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13934,51 +14146,51 @@
         <v>125</v>
       </c>
       <c r="C40" s="124">
-        <f>'Chilled Water'!C32</f>
+        <f>'Chilled Water'!C31</f>
         <v>538.97</v>
       </c>
       <c r="D40" s="124">
-        <f>'Chilled Water'!D32</f>
+        <f>'Chilled Water'!D31</f>
         <v>629.79999999999995</v>
       </c>
       <c r="E40" s="124">
-        <f>'Chilled Water'!E32</f>
+        <f>'Chilled Water'!E31</f>
         <v>676.72</v>
       </c>
       <c r="F40" s="124">
-        <f>'Chilled Water'!F32</f>
+        <f>'Chilled Water'!F31</f>
         <v>362.71</v>
       </c>
       <c r="G40" s="124">
-        <f>'Chilled Water'!G32</f>
+        <f>'Chilled Water'!G31</f>
         <v>229.54</v>
       </c>
       <c r="H40" s="124">
-        <f>'Chilled Water'!H32</f>
+        <f>'Chilled Water'!H31</f>
         <v>250.28</v>
       </c>
       <c r="I40" s="124">
-        <f>'Chilled Water'!I32</f>
+        <f>'Chilled Water'!I31</f>
         <v>77.97</v>
       </c>
       <c r="J40" s="124">
-        <f>'Chilled Water'!J32</f>
+        <f>'Chilled Water'!J31</f>
         <v>387</v>
       </c>
       <c r="K40" s="124">
-        <f>'Chilled Water'!K32</f>
+        <f>'Chilled Water'!K31</f>
         <v>317.45</v>
       </c>
       <c r="L40" s="124">
-        <f>'Chilled Water'!L32</f>
+        <f>'Chilled Water'!L31</f>
         <v>388.12</v>
       </c>
       <c r="M40" s="124">
-        <f>'Chilled Water'!M32</f>
+        <f>'Chilled Water'!M31</f>
         <v>369.27</v>
       </c>
       <c r="N40" s="124">
-        <f>'Chilled Water'!N32</f>
+        <f>'Chilled Water'!N31</f>
         <v>591.09</v>
       </c>
       <c r="O40" s="124">
@@ -14170,51 +14382,51 @@
         <v>125</v>
       </c>
       <c r="C44" s="124">
-        <f>'Chilled Water'!C35</f>
+        <f>'Chilled Water'!C34</f>
         <v>305.92</v>
       </c>
       <c r="D44" s="124">
-        <f>'Chilled Water'!D35</f>
+        <f>'Chilled Water'!D34</f>
         <v>438.79</v>
       </c>
       <c r="E44" s="124">
-        <f>'Chilled Water'!E35</f>
+        <f>'Chilled Water'!E34</f>
         <v>488.36</v>
       </c>
       <c r="F44" s="124">
-        <f>'Chilled Water'!F35</f>
+        <f>'Chilled Water'!F34</f>
         <v>227.34</v>
       </c>
       <c r="G44" s="124">
-        <f>'Chilled Water'!G35</f>
+        <f>'Chilled Water'!G34</f>
         <v>188.29</v>
       </c>
       <c r="H44" s="124">
-        <f>'Chilled Water'!H35</f>
+        <f>'Chilled Water'!H34</f>
         <v>91.44</v>
       </c>
       <c r="I44" s="124">
-        <f>'Chilled Water'!I35</f>
+        <f>'Chilled Water'!I34</f>
         <v>26.74</v>
       </c>
       <c r="J44" s="124">
-        <f>'Chilled Water'!J35</f>
+        <f>'Chilled Water'!J34</f>
         <v>125.98</v>
       </c>
       <c r="K44" s="124">
-        <f>'Chilled Water'!K35</f>
+        <f>'Chilled Water'!K34</f>
         <v>155.44</v>
       </c>
       <c r="L44" s="124">
-        <f>'Chilled Water'!L35</f>
+        <f>'Chilled Water'!L34</f>
         <v>135.78</v>
       </c>
       <c r="M44" s="124">
-        <f>'Chilled Water'!M35</f>
+        <f>'Chilled Water'!M34</f>
         <v>369.27</v>
       </c>
       <c r="N44" s="124">
-        <f>'Chilled Water'!N35</f>
+        <f>'Chilled Water'!N34</f>
         <v>324.68</v>
       </c>
       <c r="O44" s="124">
@@ -14423,51 +14635,51 @@
         <v>125</v>
       </c>
       <c r="C49" s="124">
-        <f>'Chilled Water'!C38</f>
+        <f>'Chilled Water'!C37</f>
         <v>2842.31</v>
       </c>
       <c r="D49" s="124">
-        <f>'Chilled Water'!D38</f>
+        <f>'Chilled Water'!D37</f>
         <v>3698.67</v>
       </c>
       <c r="E49" s="124">
-        <f>'Chilled Water'!E38</f>
+        <f>'Chilled Water'!E37</f>
         <v>3478.99</v>
       </c>
       <c r="F49" s="124">
-        <f>'Chilled Water'!F38</f>
+        <f>'Chilled Water'!F37</f>
         <v>1693.66</v>
       </c>
       <c r="G49" s="124">
-        <f>'Chilled Water'!G38</f>
+        <f>'Chilled Water'!G37</f>
         <v>718.44</v>
       </c>
       <c r="H49" s="124">
-        <f>'Chilled Water'!H38</f>
+        <f>'Chilled Water'!H37</f>
         <v>499.42</v>
       </c>
       <c r="I49" s="124">
-        <f>'Chilled Water'!I38</f>
+        <f>'Chilled Water'!I37</f>
         <v>265.44</v>
       </c>
       <c r="J49" s="124">
-        <f>'Chilled Water'!J38</f>
+        <f>'Chilled Water'!J37</f>
         <v>325.39999999999998</v>
       </c>
       <c r="K49" s="124">
-        <f>'Chilled Water'!K38</f>
+        <f>'Chilled Water'!K37</f>
         <v>672.71</v>
       </c>
       <c r="L49" s="124">
-        <f>'Chilled Water'!L38</f>
+        <f>'Chilled Water'!L37</f>
         <v>1399.9</v>
       </c>
       <c r="M49" s="124">
-        <f>'Chilled Water'!M38</f>
+        <f>'Chilled Water'!M37</f>
         <v>1622.89</v>
       </c>
       <c r="N49" s="124">
-        <f>'Chilled Water'!N38</f>
+        <f>'Chilled Water'!N37</f>
         <v>2312.5500000000002</v>
       </c>
       <c r="O49" s="124">
@@ -14676,51 +14888,51 @@
         <v>125</v>
       </c>
       <c r="C54" s="124">
-        <f>'Chilled Water'!C41</f>
+        <f>'Chilled Water'!C40</f>
         <v>1446.04</v>
       </c>
       <c r="D54" s="124">
-        <f>'Chilled Water'!D41</f>
+        <f>'Chilled Water'!D40</f>
         <v>1956.2</v>
       </c>
       <c r="E54" s="124">
-        <f>'Chilled Water'!E41</f>
+        <f>'Chilled Water'!E40</f>
         <v>1666.54</v>
       </c>
       <c r="F54" s="124">
-        <f>'Chilled Water'!F41</f>
+        <f>'Chilled Water'!F40</f>
         <v>711.92</v>
       </c>
       <c r="G54" s="124">
-        <f>'Chilled Water'!G41</f>
+        <f>'Chilled Water'!G40</f>
         <v>190.44</v>
       </c>
       <c r="H54" s="124">
-        <f>'Chilled Water'!H41</f>
+        <f>'Chilled Water'!H40</f>
         <v>68.069999999999993</v>
       </c>
       <c r="I54" s="124">
-        <f>'Chilled Water'!I41</f>
+        <f>'Chilled Water'!I40</f>
         <v>81.72</v>
       </c>
       <c r="J54" s="124">
-        <f>'Chilled Water'!J41</f>
+        <f>'Chilled Water'!J40</f>
         <v>594.88</v>
       </c>
       <c r="K54" s="124">
-        <f>'Chilled Water'!K41</f>
+        <f>'Chilled Water'!K40</f>
         <v>253.23</v>
       </c>
       <c r="L54" s="124">
-        <f>'Chilled Water'!L41</f>
+        <f>'Chilled Water'!L40</f>
         <v>574.59</v>
       </c>
       <c r="M54" s="124">
-        <f>'Chilled Water'!M41</f>
+        <f>'Chilled Water'!M40</f>
         <v>512.15</v>
       </c>
       <c r="N54" s="124">
-        <f>'Chilled Water'!N41</f>
+        <f>'Chilled Water'!N40</f>
         <v>600.96</v>
       </c>
       <c r="O54" s="124">
@@ -14932,51 +15144,51 @@
         <v>125</v>
       </c>
       <c r="C59" s="124">
-        <f>'Chilled Water'!C44</f>
+        <f>'Chilled Water'!C43</f>
         <v>1514.27</v>
       </c>
       <c r="D59" s="124">
-        <f>'Chilled Water'!D44</f>
+        <f>'Chilled Water'!D43</f>
         <v>2043.39</v>
       </c>
       <c r="E59" s="124">
-        <f>'Chilled Water'!E44</f>
+        <f>'Chilled Water'!E43</f>
         <v>1923.06</v>
       </c>
       <c r="F59" s="124">
-        <f>'Chilled Water'!F44</f>
+        <f>'Chilled Water'!F43</f>
         <v>940.93</v>
       </c>
       <c r="G59" s="124">
-        <f>'Chilled Water'!G44</f>
+        <f>'Chilled Water'!G43</f>
         <v>566.41999999999996</v>
       </c>
       <c r="H59" s="124">
-        <f>'Chilled Water'!H44</f>
+        <f>'Chilled Water'!H43</f>
         <v>262.76</v>
       </c>
       <c r="I59" s="124">
-        <f>'Chilled Water'!I44</f>
+        <f>'Chilled Water'!I43</f>
         <v>278.61</v>
       </c>
       <c r="J59" s="124">
-        <f>'Chilled Water'!J44</f>
+        <f>'Chilled Water'!J43</f>
         <v>326.24</v>
       </c>
       <c r="K59" s="124">
-        <f>'Chilled Water'!K44</f>
+        <f>'Chilled Water'!K43</f>
         <v>375.25</v>
       </c>
       <c r="L59" s="124">
-        <f>'Chilled Water'!L44</f>
+        <f>'Chilled Water'!L43</f>
         <v>734.53</v>
       </c>
       <c r="M59" s="124">
-        <f>'Chilled Water'!M44</f>
+        <f>'Chilled Water'!M43</f>
         <v>698.3</v>
       </c>
       <c r="N59" s="124">
-        <f>'Chilled Water'!N44</f>
+        <f>'Chilled Water'!N43</f>
         <v>1035.8699999999999</v>
       </c>
       <c r="O59" s="124">
@@ -15188,51 +15400,51 @@
         <v>125</v>
       </c>
       <c r="C64" s="124">
-        <f>'Chilled Water'!C47</f>
+        <f>'Chilled Water'!C46</f>
         <v>4969.26</v>
       </c>
       <c r="D64" s="124">
-        <f>'Chilled Water'!D47</f>
+        <f>'Chilled Water'!D46</f>
         <v>5308.2</v>
       </c>
       <c r="E64" s="124">
-        <f>'Chilled Water'!E47</f>
+        <f>'Chilled Water'!E46</f>
         <v>4720.4399999999996</v>
       </c>
       <c r="F64" s="124">
-        <f>'Chilled Water'!F47</f>
+        <f>'Chilled Water'!F46</f>
         <v>2425.31</v>
       </c>
       <c r="G64" s="124">
-        <f>'Chilled Water'!G47</f>
+        <f>'Chilled Water'!G46</f>
         <v>1059.92</v>
       </c>
       <c r="H64" s="124">
-        <f>'Chilled Water'!H47</f>
+        <f>'Chilled Water'!H46</f>
         <v>278.25</v>
       </c>
       <c r="I64" s="124">
-        <f>'Chilled Water'!I47</f>
+        <f>'Chilled Water'!I46</f>
         <v>236.55</v>
       </c>
       <c r="J64" s="124">
-        <f>'Chilled Water'!J47</f>
+        <f>'Chilled Water'!J46</f>
         <v>113.39</v>
       </c>
       <c r="K64" s="124">
-        <f>'Chilled Water'!K47</f>
+        <f>'Chilled Water'!K46</f>
         <v>1373.03</v>
       </c>
       <c r="L64" s="124">
-        <f>'Chilled Water'!L47</f>
+        <f>'Chilled Water'!L46</f>
         <v>1396.1</v>
       </c>
       <c r="M64" s="124">
-        <f>'Chilled Water'!M47</f>
+        <f>'Chilled Water'!M46</f>
         <v>2802.53</v>
       </c>
       <c r="N64" s="124">
-        <f>'Chilled Water'!N47</f>
+        <f>'Chilled Water'!N46</f>
         <v>3078.86</v>
       </c>
       <c r="O64" s="124">
@@ -15772,51 +15984,51 @@
         <v>159</v>
       </c>
       <c r="C76" s="155">
-        <f>C69-'Chilled Water'!C52</f>
+        <f>C69-'Chilled Water'!C51</f>
         <v>0</v>
       </c>
       <c r="D76" s="155">
-        <f>D69-'Chilled Water'!D52</f>
+        <f>D69-'Chilled Water'!D51</f>
         <v>0</v>
       </c>
       <c r="E76" s="155">
-        <f>E69-'Chilled Water'!E52</f>
+        <f>E69-'Chilled Water'!E51</f>
         <v>0</v>
       </c>
       <c r="F76" s="155">
-        <f>F69-'Chilled Water'!F52</f>
+        <f>F69-'Chilled Water'!F51</f>
         <v>0</v>
       </c>
       <c r="G76" s="155">
-        <f>G69-'Chilled Water'!G52</f>
+        <f>G69-'Chilled Water'!G51</f>
         <v>0</v>
       </c>
       <c r="H76" s="155">
-        <f>H69-'Chilled Water'!H52</f>
+        <f>H69-'Chilled Water'!H51</f>
         <v>0</v>
       </c>
       <c r="I76" s="155">
-        <f>I69-'Chilled Water'!I52</f>
+        <f>I69-'Chilled Water'!I51</f>
         <v>0</v>
       </c>
       <c r="J76" s="155">
-        <f>J69-'Chilled Water'!J52</f>
+        <f>J69-'Chilled Water'!J51</f>
         <v>0</v>
       </c>
       <c r="K76" s="155">
-        <f>K69-'Chilled Water'!K52</f>
+        <f>K69-'Chilled Water'!K51</f>
         <v>0</v>
       </c>
       <c r="L76" s="155">
-        <f>L69-'Chilled Water'!L52</f>
+        <f>L69-'Chilled Water'!L51</f>
         <v>0</v>
       </c>
       <c r="M76" s="124">
-        <f>M69-'Chilled Water'!M52</f>
+        <f>M69-'Chilled Water'!M51</f>
         <v>0</v>
       </c>
       <c r="N76" s="163">
-        <f>N69-'Chilled Water'!N52</f>
+        <f>N69-'Chilled Water'!N51</f>
         <v>0</v>
       </c>
       <c r="O76" s="164"/>
@@ -15903,20 +16115,44 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="120" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
-      <pane xSplit="17" ySplit="3" topLeftCell="R46" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="120" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
+      <pane xSplit="15" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="120" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
-      <pane xSplit="15" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup scale="77" orientation="portrait" r:id="rId2"/>
+      <pageSetup scale="55" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1">
+      <pane xSplit="16" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup scale="50" orientation="portrait" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
+      <pane xSplit="18" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup scale="77" orientation="portrait" r:id="rId4"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
+      <pane xSplit="19" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup scale="77" orientation="portrait" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="120" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
@@ -15924,39 +16160,15 @@
       <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup scale="77" orientation="portrait" r:id="rId3"/>
+      <pageSetup scale="77" orientation="portrait" r:id="rId6"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
-      <pane xSplit="19" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="120" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
+      <pane xSplit="17" ySplit="3" topLeftCell="R46" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup scale="77" orientation="portrait" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1" hiddenColumns="1">
-      <pane xSplit="18" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup scale="77" orientation="portrait" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" showPageBreaks="1" fitToPage="1" printArea="1" hiddenRows="1">
-      <pane xSplit="16" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup scale="50" orientation="portrait" r:id="rId6"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup scale="55" orientation="landscape" r:id="rId7"/>
+      <pageSetup scale="77" orientation="portrait" r:id="rId7"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
@@ -15970,7 +16182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15978,7 +16190,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -15992,7 +16204,8 @@
     <col min="7" max="9" width="11" style="168" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="166" customWidth="1"/>
     <col min="11" max="14" width="11" style="168" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="166" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="166" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="166" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="166" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="166"/>
   </cols>
@@ -18456,20 +18669,44 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="110" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
     <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="110" fitToPage="1" hiddenColumns="1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId2"/>
+      <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="90" fitToPage="1">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="59" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="110" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:P1048576"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="59" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="110" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="59" orientation="landscape" r:id="rId4"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:Q1048576"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="59" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="110" fitToPage="1" hiddenColumns="1">
@@ -18477,36 +18714,12 @@
       <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="59" orientation="landscape" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:Q1048576"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="59" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="110" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="59" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="110" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:P1048576"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="59" orientation="landscape" r:id="rId6"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="90" fitToPage="1">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="110" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="59" orientation="landscape" r:id="rId7"/>
@@ -18516,14 +18729,14 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId8"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId8"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18531,7 +18744,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1:P1048576"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20346,20 +20559,47 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="120" fitToPage="1" hiddenRows="1" hiddenColumns="1">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="120" fitToPage="1" hiddenRows="1" hiddenColumns="1">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1:P1048576"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="120" fitToPage="1" hiddenRows="1" hiddenColumns="1">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" hiddenRows="1">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
+      <pageSetup scale="77" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="130" fitToPage="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A32">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
+      <pageSetup scale="72" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="115" fitToPage="1" hiddenRows="1" hiddenColumns="1">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" orientation="landscape" r:id="rId2"/>
+      <pageSetup scale="74" orientation="landscape" r:id="rId4"/>
+      <headerFooter alignWithMargins="0">
+        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
+      </headerFooter>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="115" fitToPage="1" hiddenRows="1" hiddenColumns="1">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
+      <pageSetup scale="74" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
@@ -20368,43 +20608,16 @@
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H12" sqref="H12"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="76" orientation="landscape" r:id="rId3"/>
+      <pageSetup scale="76" orientation="landscape" r:id="rId6"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="115" fitToPage="1" hiddenRows="1" hiddenColumns="1">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="120" fitToPage="1" hiddenRows="1" hiddenColumns="1">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1:P1048576"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="74" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="115" fitToPage="1" hiddenRows="1" hiddenColumns="1">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="74" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="130" fitToPage="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A32">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="72" orientation="landscape" r:id="rId6"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" hiddenRows="1">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
-      <pageSetup scale="77" orientation="landscape" r:id="rId7"/>
+      <pageSetup scale="76" orientation="landscape" r:id="rId7"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
@@ -20421,16 +20634,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A40" sqref="A40"/>
-      <selection pane="topRight" activeCell="J79" sqref="J79"/>
+      <selection pane="topRight" activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22755,20 +22967,44 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="130" fitToPage="1" hiddenColumns="1" topLeftCell="A40">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="130" fitToPage="1" hiddenColumns="1" topLeftCell="A4">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J79" sqref="J79"/>
+      <selection pane="topRight" activeCell="S49" sqref="S49"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="130" fitToPage="1" hiddenColumns="1">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" hiddenColumns="1">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="70" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="140" fitToPage="1" hiddenColumns="1">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="70" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" fitToPage="1" hiddenColumns="1">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W10" sqref="W10"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="70" orientation="landscape" r:id="rId4"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" fitToPage="1" hiddenColumns="1">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
+      <printOptions horizontalCentered="1" verticalCentered="1"/>
+      <pageSetup scale="70" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="130" fitToPage="1" hiddenColumns="1">
@@ -22776,36 +23012,12 @@
       <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="70" orientation="landscape" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" fitToPage="1" hiddenColumns="1">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="70" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" fitToPage="1" hiddenColumns="1">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W10" sqref="W10"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
-      <pageSetup scale="70" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="140" fitToPage="1" hiddenColumns="1">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
-      <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-      <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="70" orientation="landscape" r:id="rId6"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" hiddenColumns="1">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="130" fitToPage="1" hiddenColumns="1" topLeftCell="A40">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J79" sqref="J79"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup scale="70" orientation="landscape" r:id="rId7"/>
@@ -22822,7 +23034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23351,43 +23563,43 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId6"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" fitToPage="1" state="hidden" topLeftCell="A13">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" fitToPage="1" state="hidden" topLeftCell="A13">
       <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
       <pageSetup scale="82" orientation="portrait" r:id="rId7"/>
@@ -23402,7 +23614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
@@ -27425,7 +27637,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27433,7 +27645,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -27441,7 +27653,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -27449,7 +27661,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
@@ -27457,7 +27669,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId5"/>
@@ -27465,7 +27677,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId6"/>
@@ -27473,7 +27685,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" showPageBreaks="1" printArea="1" state="hidden" topLeftCell="A116">
       <selection activeCell="C139" sqref="C139"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId7"/>
@@ -27483,11 +27695,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A52:A63"/>
     <mergeCell ref="A124:A135"/>
     <mergeCell ref="A136:A147"/>
     <mergeCell ref="A64:A75"/>
@@ -27495,6 +27702,11 @@
     <mergeCell ref="A88:A99"/>
     <mergeCell ref="A100:A111"/>
     <mergeCell ref="A112:A123"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="A52:A63"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27507,7 +27719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -30749,7 +30961,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30762,7 +30974,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" scale="85" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30775,7 +30987,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="85" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30788,7 +31000,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30801,7 +31013,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30814,7 +31026,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" scale="85" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30827,7 +31039,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" scale="85" showPageBreaks="1" state="hidden" topLeftCell="A100">
       <selection activeCell="A137" sqref="A137:A138"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="51" max="16383" man="1"/>
@@ -30869,7 +31081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31396,7 +31608,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" state="hidden">
+    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId1"/>
@@ -31404,7 +31616,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{7E611BF3-29F9-42C0-9604-1424EEA5D170}" state="hidden">
+    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId2"/>
@@ -31412,7 +31624,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" state="hidden">
+    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId3"/>
@@ -31420,7 +31632,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" state="hidden">
+    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId4"/>
@@ -31428,7 +31640,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{902840B4-CA0A-4F6E-BC43-8C327A56ACC5}" state="hidden">
+    <customSheetView guid="{C9E92C5F-0D58-4CFB-9D13-E03F6AA5D0E3}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId5"/>
@@ -31436,7 +31648,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{BAA39939-E753-438A-B867-0C9F92A74103}" state="hidden">
+    <customSheetView guid="{10A73640-EEC6-41E7-B502-1530CC038C4B}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId6"/>
@@ -31444,7 +31656,7 @@
         <oddFooter>&amp;C&amp;P of &amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{DFC6CB94-9BD9-42C9-9155-85AE48A8AF87}" state="hidden">
+    <customSheetView guid="{507E6E96-4EC3-4333-BE0D-BDD19D4BA57B}" state="hidden">
       <selection activeCell="A13" sqref="A13:A21"/>
       <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.25" header="0.5" footer="0.5"/>
       <pageSetup orientation="landscape" r:id="rId7"/>
